--- a/hill_vow_values.xlsx
+++ b/hill_vow_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/bi_phon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4A2B0E-2B41-9742-9C63-8EEF6CD3E625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A96F93-D2CE-E541-ABB1-86FA57F30587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{A9AE7802-0BDD-3144-850B-E7EC80DAE2B9}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
